--- a/biology/Microbiologie/Coproculture/Coproculture.xlsx
+++ b/biology/Microbiologie/Coproculture/Coproculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coproculture (du grec ancien : κόπρος / kópros, « excrément ») est la culture bactériologique de selles qui, via une coproscopie, décèle la présence de germes pathogènes normalement absents du tube digestif ou anormalement nombreux. 
 L'examen peut être utile dans plusieurs cas : 
@@ -519,7 +531,9 @@
           <t>Protocole opératoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les selles, en général diarrhéiques, sont prélevées et l'échantillon est placé dans un récipient stérile fermé.
 L'échantillon doit être transporté rapidement en laboratoire, ou conservée dans de la glace en attendant.
@@ -563,7 +577,9 @@
           <t>Symptômes et rappels concernant les infections du tube digestif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maux de ventre
 Diarrhées
@@ -598,7 +614,9 @@
           <t>Résultats normaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La flore colique de l'adulte se caractérise par une grande densité et une extraordinaire diversité.
 Flore normale : 10^12 bactéries/g de selle renfermant plus de 400 espèces différentes.
@@ -632,7 +650,9 @@
           <t>Flore pathogène</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bactéries entérotoxinogènes : Vibrio, Clostridium, Escherichia coli entéro-toxiques. Elles entrent dans le tube digestif, y produisent des toxines et perturbent le bon fonctionnement des entérocytes (cellules de l'intestin)
 Bactéries entérotoxiques : dans aliments : Staphylococcus aureus
